--- a/data/raw/mock_project_database.xlsx
+++ b/data/raw/mock_project_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay vishwa\OneDrive\Documents\intelligent-proposal-evaluator\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57ECB41-0BF4-493B-8E4D-1065DF8A8B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA0D928-9B92-4E29-8966-FFC6142739F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{59DFF14A-9E90-4C25-820D-6B0402980670}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Project_ID</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Development of an efficient and cost-effective process for the removal of toxic heavy metals from the acid mine drainage</t>
+  </si>
+  <si>
+    <t>rejected</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +655,7 @@
         <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,7 +672,7 @@
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,7 +689,7 @@
         <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -703,7 +706,7 @@
         <v>2022</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -720,7 +723,7 @@
         <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -729,6 +732,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010833F2B39D0F444BA85DAFB6A789708" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97789c94c0f19aa06d5f476b6377f24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4cdb95ef-47d3-4327-9667-cc14a6d6eee0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d196d8977cc656adcf9a76b079f4e317" ns3:_="">
     <xsd:import namespace="4cdb95ef-47d3-4327-9667-cc14a6d6eee0"/>
@@ -878,15 +890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -896,6 +899,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC548EAF-C981-4995-B040-DDF161837BB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A56BB5A3-70F5-421C-9FA9-657F53FD4374}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -913,14 +924,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC548EAF-C981-4995-B040-DDF161837BB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8379CAB0-83A8-4226-B3C2-815DC265A68B}">
   <ds:schemaRefs>
